--- a/ziel_1 - Kopie (6).xlsx
+++ b/ziel_1 - Kopie (6).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silas\VSCode\xlsx-übertragung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silas\VSCode\xlsx-merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D44B49-B9F3-40D3-B714-605B26A29958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A9AC6A-C355-425E-A633-285B5B8D8F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -398,9 +398,6 @@
     <t>REF-66</t>
   </si>
   <si>
-    <t>REF-67</t>
-  </si>
-  <si>
     <t>Schmidt, Tom</t>
   </si>
   <si>
@@ -530,16 +527,16 @@
     <t>REF-97</t>
   </si>
   <si>
-    <t>REF-98</t>
-  </si>
-  <si>
     <t>Müller, Ben</t>
   </si>
   <si>
-    <t>REF-99</t>
-  </si>
-  <si>
     <t>Schneider, Julia</t>
+  </si>
+  <si>
+    <t>REF-990</t>
+  </si>
+  <si>
+    <t>REF-1267</t>
   </si>
 </sst>
 </file>
@@ -914,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2148,10 +2145,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
         <v>121</v>
-      </c>
-      <c r="B69" t="s">
-        <v>122</v>
       </c>
       <c r="C69" s="1">
         <v>44645</v>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -2184,10 +2181,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" t="s">
         <v>124</v>
-      </c>
-      <c r="B71" t="s">
-        <v>125</v>
       </c>
       <c r="C71" s="1">
         <v>45867</v>
@@ -2202,10 +2199,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" t="s">
         <v>126</v>
-      </c>
-      <c r="B72" t="s">
-        <v>127</v>
       </c>
       <c r="C72" s="1">
         <v>44005</v>
@@ -2220,10 +2217,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
         <v>128</v>
-      </c>
-      <c r="B73" t="s">
-        <v>129</v>
       </c>
       <c r="C73" s="1">
         <v>45884</v>
@@ -2238,10 +2235,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" t="s">
         <v>130</v>
-      </c>
-      <c r="B74" t="s">
-        <v>131</v>
       </c>
       <c r="C74" s="1">
         <v>44413</v>
@@ -2256,10 +2253,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" t="s">
         <v>132</v>
-      </c>
-      <c r="B75" t="s">
-        <v>133</v>
       </c>
       <c r="C75" s="1">
         <v>45268</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
         <v>40</v>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
         <v>52</v>
@@ -2310,7 +2307,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B78" t="s">
         <v>104</v>
@@ -2328,7 +2325,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
@@ -2346,10 +2343,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" t="s">
         <v>138</v>
-      </c>
-      <c r="B80" t="s">
-        <v>139</v>
       </c>
       <c r="C80" s="1">
         <v>44907</v>
@@ -2364,7 +2361,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
@@ -2382,7 +2379,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B82" t="s">
         <v>113</v>
@@ -2400,10 +2397,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" t="s">
         <v>142</v>
-      </c>
-      <c r="B83" t="s">
-        <v>143</v>
       </c>
       <c r="C83" s="1">
         <v>45892</v>
@@ -2418,10 +2415,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" t="s">
         <v>144</v>
-      </c>
-      <c r="B84" t="s">
-        <v>145</v>
       </c>
       <c r="C84" s="1">
         <v>44968</v>
@@ -2436,7 +2433,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85" t="s">
         <v>113</v>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" t="s">
         <v>83</v>
@@ -2472,10 +2469,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
         <v>148</v>
-      </c>
-      <c r="B87" t="s">
-        <v>149</v>
       </c>
       <c r="C87" s="1">
         <v>45554</v>
@@ -2490,7 +2487,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
         <v>99</v>
@@ -2508,10 +2505,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" t="s">
         <v>151</v>
-      </c>
-      <c r="B89" t="s">
-        <v>152</v>
       </c>
       <c r="C89" s="1">
         <v>45807</v>
@@ -2526,7 +2523,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
         <v>71</v>
@@ -2544,7 +2541,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -2562,7 +2559,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B92" t="s">
         <v>88</v>
@@ -2580,10 +2577,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" s="1">
         <v>44061</v>
@@ -2598,7 +2595,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B94" t="s">
         <v>22</v>
@@ -2616,10 +2613,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" t="s">
         <v>158</v>
-      </c>
-      <c r="B95" t="s">
-        <v>159</v>
       </c>
       <c r="C95" s="1">
         <v>45131</v>
@@ -2634,7 +2631,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -2652,7 +2649,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B97" t="s">
         <v>117</v>
@@ -2670,10 +2667,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" t="s">
         <v>162</v>
-      </c>
-      <c r="B98" t="s">
-        <v>163</v>
       </c>
       <c r="C98" s="1">
         <v>44160</v>
@@ -2682,13 +2679,13 @@
         <v>182.83</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:E129" si="3">D98*0.19</f>
+        <f t="shared" ref="E98:E101" si="3">D98*0.19</f>
         <v>34.737700000000004</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -2705,11 +2702,11 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>165</v>
+      <c r="A100">
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C100" s="1">
         <v>44969</v>
@@ -2724,10 +2721,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C101" s="1">
         <v>44533</v>
